--- a/data/trans_orig/P36B14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>243275</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>219128</v>
+        <v>218344</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>269829</v>
+        <v>267882</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3623376149086093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3263726559917037</v>
+        <v>0.325204421346822</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4018875724310335</v>
+        <v>0.398987823363387</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>251</v>
@@ -762,19 +762,19 @@
         <v>264426</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>238822</v>
+        <v>240993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290262</v>
+        <v>292629</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3956437671856146</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3573342120729845</v>
+        <v>0.3605826676538842</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4343009891325417</v>
+        <v>0.4378431972320744</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>486</v>
@@ -783,19 +783,19 @@
         <v>507701</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>473758</v>
+        <v>472332</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>545682</v>
+        <v>544657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3789526296800899</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3536173614831649</v>
+        <v>0.3525529181664906</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4073017299338133</v>
+        <v>0.4065372407064629</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>123218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106218</v>
+        <v>104031</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>145654</v>
+        <v>142942</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1835219096691783</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1582021297261928</v>
+        <v>0.1549451146294774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2169384673930811</v>
+        <v>0.2128990777863183</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>111</v>
@@ -833,19 +833,19 @@
         <v>110151</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92787</v>
+        <v>91635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129422</v>
+        <v>129915</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1648114873599109</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.138830660381355</v>
+        <v>0.1371078186883702</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1936467301320107</v>
+        <v>0.1943833003096038</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>230</v>
@@ -854,19 +854,19 @@
         <v>233368</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>206028</v>
+        <v>205591</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>263013</v>
+        <v>261127</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1741880802774312</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1537815033354747</v>
+        <v>0.1534548835956742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1963151982740266</v>
+        <v>0.1949075279953467</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>115297</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97270</v>
+        <v>97676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135506</v>
+        <v>137291</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1717245223704271</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1448746608724445</v>
+        <v>0.1454794499700281</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2018242927416683</v>
+        <v>0.204483799603412</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>131</v>
@@ -904,19 +904,19 @@
         <v>128172</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>109342</v>
+        <v>110201</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149203</v>
+        <v>151205</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1917756216219058</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.163602181252845</v>
+        <v>0.1648867598960155</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2232427424596966</v>
+        <v>0.2262393325586753</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>245</v>
@@ -925,19 +925,19 @@
         <v>243469</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>217234</v>
+        <v>215077</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>271839</v>
+        <v>270641</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1817271581440511</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.162145248218799</v>
+        <v>0.1605351773657768</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2029028650731531</v>
+        <v>0.2020088885935453</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>119391</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101633</v>
+        <v>100977</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>142901</v>
+        <v>140096</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1778232642180379</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1513740467255162</v>
+        <v>0.1503968600019773</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2128385101098725</v>
+        <v>0.2086613452347594</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -975,19 +975,19 @@
         <v>96738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79337</v>
+        <v>79887</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115871</v>
+        <v>115694</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1447433772389767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1187071636971417</v>
+        <v>0.1195300951249822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1733707825166238</v>
+        <v>0.1731050921703493</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -996,19 +996,19 @@
         <v>216130</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>189792</v>
+        <v>190886</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243075</v>
+        <v>243083</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1613211235256868</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1416628048551124</v>
+        <v>0.142479387833458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1814337070174636</v>
+        <v>0.1814394113499213</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>70224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52734</v>
+        <v>54609</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85712</v>
+        <v>88094</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1045926888337474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07854321882397571</v>
+        <v>0.08133574615269457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1276607083197904</v>
+        <v>0.1312082457921631</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -1046,19 +1046,19 @@
         <v>68857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54057</v>
+        <v>53155</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85407</v>
+        <v>85028</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.103025746593592</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08088187908580478</v>
+        <v>0.07953192513597603</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1277892174104151</v>
+        <v>0.1272218394633809</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>135</v>
@@ -1067,19 +1067,19 @@
         <v>139081</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>117907</v>
+        <v>116044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>163761</v>
+        <v>162848</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.103811008372741</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08800671553388699</v>
+        <v>0.08661656713498508</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1222326469525361</v>
+        <v>0.121551398143372</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>299060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>270474</v>
+        <v>273782</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>329435</v>
+        <v>331318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2934984118375932</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2654438899905223</v>
+        <v>0.2686901089842813</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.323308965786591</v>
+        <v>0.325156746080411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>321</v>
@@ -1192,19 +1192,19 @@
         <v>358058</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>327071</v>
+        <v>328663</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>391441</v>
+        <v>389248</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3433247826921776</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3136128558473193</v>
+        <v>0.3151397714583423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3753343387773119</v>
+        <v>0.3732316469776314</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>606</v>
@@ -1213,19 +1213,19 @@
         <v>657118</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>612737</v>
+        <v>610122</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>701902</v>
+        <v>698196</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3187011483259265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2971763414567922</v>
+        <v>0.2959081647312254</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3404216563160888</v>
+        <v>0.3386242414232971</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>144936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>123452</v>
+        <v>121509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170801</v>
+        <v>169618</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1422407213181123</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1211560808278666</v>
+        <v>0.1192491069520091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1676246039714357</v>
+        <v>0.1664638110920293</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -1263,19 +1263,19 @@
         <v>164794</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142326</v>
+        <v>141891</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>188851</v>
+        <v>188516</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1580130724037443</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1364698100725923</v>
+        <v>0.1360530320890654</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1810804139831618</v>
+        <v>0.1807592529929775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>287</v>
@@ -1284,19 +1284,19 @@
         <v>309730</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>278821</v>
+        <v>275873</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>342211</v>
+        <v>343437</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.150218553164882</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1352279158529212</v>
+        <v>0.1337980075127712</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1659718230113048</v>
+        <v>0.1665666250907756</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>201483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>176492</v>
+        <v>176615</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>229062</v>
+        <v>228745</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1977365595456629</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1732102285963401</v>
+        <v>0.1733301514100759</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2248017757175829</v>
+        <v>0.2244912681139393</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>190</v>
@@ -1334,19 +1334,19 @@
         <v>201287</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>174283</v>
+        <v>176365</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>226462</v>
+        <v>226076</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1930045442630109</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1671119447998634</v>
+        <v>0.1691079775222482</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2171439326314482</v>
+        <v>0.2167733896177537</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>375</v>
@@ -1355,19 +1355,19 @@
         <v>402770</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>368051</v>
+        <v>364949</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>443019</v>
+        <v>438616</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1953430532119285</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1785043876886557</v>
+        <v>0.1769998742634083</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2148636558704231</v>
+        <v>0.212727905793941</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>198177</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173717</v>
+        <v>174450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>225933</v>
+        <v>224805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1944918830912661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1704860797861056</v>
+        <v>0.1712057696382061</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2217310251580765</v>
+        <v>0.220624845567384</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>176</v>
@@ -1405,19 +1405,19 @@
         <v>180251</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>157798</v>
+        <v>156828</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>205880</v>
+        <v>204720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1728336920695793</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1513053784312833</v>
+        <v>0.1503745095046627</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.197408943586396</v>
+        <v>0.1962963822872448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>360</v>
@@ -1426,19 +1426,19 @@
         <v>378428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>343241</v>
+        <v>344271</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>416105</v>
+        <v>417066</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1835369274769674</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1664715140622706</v>
+        <v>0.1669707118529388</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2018100786585253</v>
+        <v>0.2022766020525633</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>175292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152435</v>
+        <v>150981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200054</v>
+        <v>200880</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1720324242073656</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.149600157116195</v>
+        <v>0.1481732308720135</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1963333438334384</v>
+        <v>0.1971442888547316</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -1476,19 +1476,19 @@
         <v>138524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116881</v>
+        <v>118772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>162207</v>
+        <v>162697</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1328239085714879</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1120719477190296</v>
+        <v>0.1138844769138494</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1555330248971214</v>
+        <v>0.156002672519913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>297</v>
@@ -1497,19 +1497,19 @@
         <v>313816</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>277472</v>
+        <v>279980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>345185</v>
+        <v>347646</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1522003178202956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1345736538575171</v>
+        <v>0.1357896933864164</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1674140061673617</v>
+        <v>0.1686077214801195</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>213161</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>189045</v>
+        <v>189206</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>243649</v>
+        <v>237776</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2819324085906842</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2500359570780101</v>
+        <v>0.250247686248174</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3222553352045401</v>
+        <v>0.3144887163446285</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>237</v>
@@ -1622,19 +1622,19 @@
         <v>262797</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>236008</v>
+        <v>233397</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>289420</v>
+        <v>289284</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3380724683387897</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3036099246056468</v>
+        <v>0.3002521453468925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3723217622076709</v>
+        <v>0.3721463631466243</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>434</v>
@@ -1643,19 +1643,19 @@
         <v>475958</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>437588</v>
+        <v>437371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>511195</v>
+        <v>513998</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.310391711395452</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2853690314062347</v>
+        <v>0.2852272857922735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3333713080715092</v>
+        <v>0.3351990270402337</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>116496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>96237</v>
+        <v>94694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135329</v>
+        <v>138175</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1540803248219826</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1272856645422382</v>
+        <v>0.1252448429686062</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1789898631926935</v>
+        <v>0.1827529699949187</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -1693,19 +1693,19 @@
         <v>124881</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101886</v>
+        <v>104648</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146148</v>
+        <v>148241</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1606516515689258</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1310701313928455</v>
+        <v>0.1346234439371106</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1880110248072074</v>
+        <v>0.1907037535339541</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>220</v>
@@ -1714,19 +1714,19 @@
         <v>241377</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>211793</v>
+        <v>213085</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>270479</v>
+        <v>270992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1574115535125014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1381186650150352</v>
+        <v>0.1389616318850798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1763901086702396</v>
+        <v>0.1767246480440348</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>144760</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>122905</v>
+        <v>123126</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>166380</v>
+        <v>168065</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.191463377286343</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1625573701166338</v>
+        <v>0.1628495435703456</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2200578254501107</v>
+        <v>0.2222866845690823</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>114</v>
@@ -1764,19 +1764,19 @@
         <v>122591</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>103883</v>
+        <v>101148</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>146509</v>
+        <v>144826</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1577056266622707</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.133639986913362</v>
+        <v>0.1301203662976841</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1884750217882812</v>
+        <v>0.1863104276631547</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>247</v>
@@ -1785,19 +1785,19 @@
         <v>267351</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>237429</v>
+        <v>238126</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>296568</v>
+        <v>300460</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1743504270805725</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1548371007058291</v>
+        <v>0.1552914989456504</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1934043389693817</v>
+        <v>0.1959422995468485</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>149549</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>128557</v>
+        <v>129455</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172276</v>
+        <v>171104</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1977971593649375</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1700330339141373</v>
+        <v>0.1712197823840393</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2278557093553637</v>
+        <v>0.2263055458482037</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>128</v>
@@ -1835,19 +1835,19 @@
         <v>133443</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>114111</v>
+        <v>110655</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>155940</v>
+        <v>154618</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1716660310155889</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1467968751198628</v>
+        <v>0.14235091432928</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2006076100931141</v>
+        <v>0.1989076630313771</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>267</v>
@@ -1856,19 +1856,19 @@
         <v>282992</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>253817</v>
+        <v>251390</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>314672</v>
+        <v>312384</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1845504029905918</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1655246248076274</v>
+        <v>0.1639415171330807</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2052103476381011</v>
+        <v>0.2037183326965183</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>132106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>111273</v>
+        <v>111068</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155759</v>
+        <v>155898</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1747267299360527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1471729149113669</v>
+        <v>0.1469016022777391</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2060103986233214</v>
+        <v>0.2061943730403099</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -1906,19 +1906,19 @@
         <v>133628</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113322</v>
+        <v>112310</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>154880</v>
+        <v>156482</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1719042224144249</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1457824285578764</v>
+        <v>0.1444803805425498</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1992446959337471</v>
+        <v>0.2013051106732287</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>254</v>
@@ -1927,19 +1927,19 @@
         <v>265734</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>236448</v>
+        <v>236985</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>299938</v>
+        <v>294890</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1732959050208824</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1541970918596428</v>
+        <v>0.1545476036302865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1956016364431924</v>
+        <v>0.1923099020552556</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>311874</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>285587</v>
+        <v>282657</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>339006</v>
+        <v>340501</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3372785371388488</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3088496948586046</v>
+        <v>0.3056808915237846</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3666201802673026</v>
+        <v>0.3682365018275011</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>367</v>
@@ -2052,19 +2052,19 @@
         <v>415524</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>382881</v>
+        <v>382207</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>448687</v>
+        <v>450495</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4019875291386041</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3704076906217962</v>
+        <v>0.3697558858944458</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4340697992118872</v>
+        <v>0.4358194841839904</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>671</v>
@@ -2073,19 +2073,19 @@
         <v>727398</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>682689</v>
+        <v>678995</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>771868</v>
+        <v>770847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3714337649204368</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.348603634302187</v>
+        <v>0.3467177726234823</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3941415562089949</v>
+        <v>0.3936203443449694</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>149093</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>128277</v>
+        <v>128268</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>173034</v>
+        <v>173611</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1612380659808594</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1387261340667683</v>
+        <v>0.1387161803540477</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1871284746355645</v>
+        <v>0.1877527627734392</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>171</v>
@@ -2123,19 +2123,19 @@
         <v>188339</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>165140</v>
+        <v>164294</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>216727</v>
+        <v>215820</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1822038617373541</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1597599615057947</v>
+        <v>0.1589418834055522</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2096670447360057</v>
+        <v>0.2087894189161654</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>318</v>
@@ -2144,19 +2144,19 @@
         <v>337433</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>305232</v>
+        <v>305143</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>374509</v>
+        <v>373004</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1723044032479897</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1558614934494912</v>
+        <v>0.155816295207336</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1912370366419087</v>
+        <v>0.1904681596187012</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>156233</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>133446</v>
+        <v>134861</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>179559</v>
+        <v>180359</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1689592082440165</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1443156633999284</v>
+        <v>0.1458465038551047</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1941854397224748</v>
+        <v>0.1950503074119773</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>145</v>
@@ -2194,19 +2194,19 @@
         <v>151163</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>128302</v>
+        <v>131639</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>175905</v>
+        <v>177697</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1462381534539771</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1241220784993771</v>
+        <v>0.1273504577846799</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1701744451466705</v>
+        <v>0.1719077950399987</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>304</v>
@@ -2215,19 +2215,19 @@
         <v>307395</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>276457</v>
+        <v>276620</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>339938</v>
+        <v>339565</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1569663958417669</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1411682365453457</v>
+        <v>0.1412514413989708</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1735836424603973</v>
+        <v>0.1733932668939787</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>158801</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137541</v>
+        <v>137580</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>183168</v>
+        <v>181242</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1717361927233952</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1487441058236104</v>
+        <v>0.1487869875708078</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1980887351972147</v>
+        <v>0.1960050633417772</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>146</v>
@@ -2265,19 +2265,19 @@
         <v>152266</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>128472</v>
+        <v>129438</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175882</v>
+        <v>174633</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1473056958684129</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1242871068012066</v>
+        <v>0.1252209377604044</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1701523979526098</v>
+        <v>0.1689439905353146</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>307</v>
@@ -2286,19 +2286,19 @@
         <v>311067</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>281579</v>
+        <v>279592</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>343775</v>
+        <v>347384</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1588410886719761</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.143783669582102</v>
+        <v>0.1427689335835347</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1755429379654668</v>
+        <v>0.1773860031704305</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>148677</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>127283</v>
+        <v>128288</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>172422</v>
+        <v>170761</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1607879959128801</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1376514232234942</v>
+        <v>0.1387383139128064</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1864665355214546</v>
+        <v>0.1846701730235605</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>123</v>
@@ -2336,19 +2336,19 @@
         <v>126382</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>106603</v>
+        <v>108798</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149505</v>
+        <v>149613</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1222647598016518</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1031304695007545</v>
+        <v>0.1052539380343722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1446345932687023</v>
+        <v>0.1447387299177594</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>271</v>
@@ -2357,19 +2357,19 @@
         <v>275059</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>246899</v>
+        <v>246654</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>309765</v>
+        <v>308771</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1404543473178306</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1260748524341096</v>
+        <v>0.1259496404904281</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1581764283831415</v>
+        <v>0.1576686608754087</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>1067371</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1014639</v>
+        <v>1015254</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1120498</v>
+        <v>1127028</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3166234056993657</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.300980988744469</v>
+        <v>0.3011635735429037</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3323829057078508</v>
+        <v>0.3343200789127577</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1176</v>
@@ -2482,19 +2482,19 @@
         <v>1300804</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1241848</v>
+        <v>1243252</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1358955</v>
+        <v>1362902</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3693087066549181</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3525707991306044</v>
+        <v>0.3529693164260219</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.385818152897664</v>
+        <v>0.3869389920170206</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2197</v>
@@ -2503,19 +2503,19 @@
         <v>2368175</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2289623</v>
+        <v>2286837</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2455233</v>
+        <v>2443740</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3435437120755629</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3321483711593017</v>
+        <v>0.3317442034444189</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3561729672070295</v>
+        <v>0.3545057056235495</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>533743</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>495326</v>
+        <v>493556</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>574762</v>
+        <v>581564</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1583287479437607</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1469326852386943</v>
+        <v>0.146407642411109</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1704965406812992</v>
+        <v>0.1725141746279343</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>554</v>
@@ -2553,19 +2553,19 @@
         <v>588164</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>545736</v>
+        <v>547484</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>640131</v>
+        <v>638631</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1669845999803409</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.154938708952922</v>
+        <v>0.1554350832958709</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1817382668070412</v>
+        <v>0.1813124280307011</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1055</v>
@@ -2574,19 +2574,19 @@
         <v>1121907</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1056776</v>
+        <v>1067564</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1186195</v>
+        <v>1194498</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1627515790663988</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1533031577869003</v>
+        <v>0.1548681408448732</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1720775825980445</v>
+        <v>0.1732820160552842</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>617773</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>573383</v>
+        <v>577662</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>660611</v>
+        <v>666376</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1832554352202776</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1700873986129453</v>
+        <v>0.1713568519755262</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1959625510368303</v>
+        <v>0.1976728355303498</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>580</v>
@@ -2624,19 +2624,19 @@
         <v>603212</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>559962</v>
+        <v>556419</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>645714</v>
+        <v>645159</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.171256703468032</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1589776463831053</v>
+        <v>0.1579719658905775</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1833234248327662</v>
+        <v>0.1831658569590753</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1171</v>
@@ -2645,19 +2645,19 @@
         <v>1220985</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1154446</v>
+        <v>1161532</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1289668</v>
+        <v>1287071</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1771245120018877</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1674718602576235</v>
+        <v>0.1684997551988295</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1870880357847648</v>
+        <v>0.1867114062696578</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>625919</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>582763</v>
+        <v>584311</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>679048</v>
+        <v>673039</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1856716109089429</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1728699581246752</v>
+        <v>0.173329281279963</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2014316747765107</v>
+        <v>0.199649250667446</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>550</v>
@@ -2695,19 +2695,19 @@
         <v>562697</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>518685</v>
+        <v>517647</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>605212</v>
+        <v>607917</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1597542636361265</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1472589447321247</v>
+        <v>0.146964080920313</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1718245210773937</v>
+        <v>0.1725926545612579</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1149</v>
@@ -2716,19 +2716,19 @@
         <v>1188616</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1124669</v>
+        <v>1129210</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1252264</v>
+        <v>1251000</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1724287724627674</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1631522190040338</v>
+        <v>0.1638109032317097</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1816620221109854</v>
+        <v>0.181478576005537</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>526300</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>486108</v>
+        <v>489415</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>572971</v>
+        <v>572535</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1561208002276531</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1441984319328135</v>
+        <v>0.1451792420774556</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1699652612304881</v>
+        <v>0.1698358363039179</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>460</v>
@@ -2766,19 +2766,19 @@
         <v>467390</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>429208</v>
+        <v>428465</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>512031</v>
+        <v>509449</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1326957262605824</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1218555774801523</v>
+        <v>0.1216447320098936</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1453696316259617</v>
+        <v>0.1446367205389713</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>957</v>
@@ -2787,19 +2787,19 @@
         <v>993690</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>932520</v>
+        <v>929128</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1056063</v>
+        <v>1047925</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1441514243933832</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.135277739442386</v>
+        <v>0.1347857076780693</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1531997460952944</v>
+        <v>0.1520191913702149</v>
       </c>
     </row>
     <row r="33">
